--- a/8. 资源组长工作框架/1. 例行工作/加班调休统计/2021平台组态加班统计.xlsx
+++ b/8. 资源组长工作框架/1. 例行工作/加班调休统计/2021平台组态加班统计.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangbin184035.HOLLYSYS\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_Code\99se\Hollysys\8. 资源组长工作框架\1. 例行工作\加班调休统计\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="1月" sheetId="1" r:id="rId1"/>
-    <sheet name="3月" sheetId="2" r:id="rId2"/>
+    <sheet name="2020" sheetId="3" r:id="rId1"/>
+    <sheet name="1月" sheetId="1" r:id="rId2"/>
+    <sheet name="3月" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="44">
   <si>
     <t>曹立言</t>
   </si>
@@ -282,12 +283,84 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>2020年福利带薪假天数</t>
+  </si>
+  <si>
+    <t>剩余天数</t>
+  </si>
+  <si>
+    <t>请假明细</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2021.3.3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全天</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2021.2.4 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全天</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2021.2.8 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全天</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2021.2.9 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>半天</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -319,6 +392,41 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -374,7 +482,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -387,17 +495,38 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -679,10 +808,133 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.875" customWidth="1"/>
+    <col min="5" max="5" width="15.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:5">
+      <c r="B3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="16.5">
+      <c r="B4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="10">
+        <v>5</v>
+      </c>
+      <c r="D4" s="11">
+        <v>4</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="16.5">
+      <c r="B5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="10">
+        <v>4</v>
+      </c>
+      <c r="D5" s="11">
+        <v>4</v>
+      </c>
+      <c r="E5" s="10"/>
+    </row>
+    <row r="6" spans="2:5" ht="15">
+      <c r="B6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="13">
+        <v>8</v>
+      </c>
+      <c r="D6" s="14">
+        <v>5.5</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="15">
+      <c r="B7" s="12"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="15">
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="16.5">
+      <c r="B9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="10">
+        <v>3</v>
+      </c>
+      <c r="D9" s="11">
+        <v>3</v>
+      </c>
+      <c r="E9" s="10"/>
+    </row>
+    <row r="10" spans="2:5" ht="16.5">
+      <c r="B10" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="11">
+        <v>8</v>
+      </c>
+      <c r="D10" s="11">
+        <v>7.5</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -695,7 +947,7 @@
       <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -709,7 +961,7 @@
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="4"/>
       <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
@@ -719,7 +971,7 @@
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="4"/>
       <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
@@ -729,7 +981,7 @@
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="5"/>
+      <c r="C5" s="4"/>
       <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
@@ -739,7 +991,7 @@
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -751,7 +1003,7 @@
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="4"/>
       <c r="D7" s="3" t="s">
         <v>0</v>
       </c>
@@ -761,7 +1013,7 @@
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="4"/>
       <c r="D8" s="3" t="s">
         <v>5</v>
       </c>
@@ -771,7 +1023,7 @@
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="5"/>
+      <c r="C9" s="4"/>
       <c r="D9" s="3" t="s">
         <v>8</v>
       </c>
@@ -781,7 +1033,7 @@
       <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="4"/>
       <c r="D10" s="3" t="s">
         <v>11</v>
       </c>
@@ -791,14 +1043,14 @@
       <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="5"/>
+      <c r="C11" s="4"/>
       <c r="D11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="2:5" ht="16.5" customHeight="1">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C12" s="7"/>
@@ -808,7 +1060,7 @@
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="2:5" ht="16.5">
-      <c r="B13" s="4"/>
+      <c r="B13" s="6"/>
       <c r="C13" s="7"/>
       <c r="D13" s="3" t="s">
         <v>14</v>
@@ -816,7 +1068,7 @@
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="2:5" ht="16.5">
-      <c r="B14" s="4"/>
+      <c r="B14" s="6"/>
       <c r="C14" s="7"/>
       <c r="D14" s="3" t="s">
         <v>15</v>
@@ -824,7 +1076,7 @@
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="2:5" ht="16.5">
-      <c r="B15" s="4"/>
+      <c r="B15" s="6"/>
       <c r="C15" s="7"/>
       <c r="D15" s="3" t="s">
         <v>16</v>
@@ -832,7 +1084,7 @@
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="2:5" ht="16.5">
-      <c r="B16" s="4"/>
+      <c r="B16" s="6"/>
       <c r="C16" s="7"/>
       <c r="D16" s="3" t="s">
         <v>3</v>
@@ -912,38 +1164,38 @@
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="4:5" ht="14.25" customHeight="1">
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E29" s="4"/>
+      <c r="E29" s="6"/>
     </row>
     <row r="30" spans="4:5">
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
     </row>
     <row r="31" spans="4:5">
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
     </row>
     <row r="32" spans="4:5">
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
     </row>
     <row r="33" spans="4:5">
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
     </row>
     <row r="34" spans="4:5">
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
     </row>
     <row r="35" spans="4:5">
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
     </row>
     <row r="36" spans="4:5">
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -956,15 +1208,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="3" spans="3:4" ht="15">
       <c r="C3" s="1" t="s">
@@ -1011,26 +1266,26 @@
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="3:4">
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="D10" s="6"/>
     </row>
     <row r="11" spans="3:4">
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
     </row>
     <row r="12" spans="3:4">
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
     </row>
     <row r="13" spans="3:4">
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
     </row>
     <row r="14" spans="3:4">
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
